--- a/data/input/absenteeism_data_48.xlsx
+++ b/data/input/absenteeism_data_48.xlsx
@@ -476,292 +476,292 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>97111</v>
+        <v>9531</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Luiz Fernando Costela</t>
+          <t>Gabrielly Pereira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45102</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>2711.74</v>
+        <v>8790.700000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>72937</v>
+        <v>40494</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Luiz Fernando Pires</t>
+          <t>Bernardo Alves</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45094</v>
+        <v>45078</v>
       </c>
       <c r="G3" t="n">
-        <v>3948.59</v>
+        <v>9522.200000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22250</v>
+        <v>81639</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Isabella Porto</t>
+          <t>Mirella Azevedo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45096</v>
+        <v>45106</v>
       </c>
       <c r="G4" t="n">
-        <v>9713.73</v>
+        <v>7469.14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3291</v>
+        <v>7140</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dr. Vitor Hugo Cardoso</t>
+          <t>Davi Lucca da Cunha</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45082</v>
+        <v>45100</v>
       </c>
       <c r="G5" t="n">
-        <v>5592.14</v>
+        <v>6530.49</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>38501</v>
+        <v>99950</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Alexandre Gomes</t>
+          <t>Luiz Felipe Azevedo</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45098</v>
+        <v>45096</v>
       </c>
       <c r="G6" t="n">
-        <v>7547.63</v>
+        <v>9095.879999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>73651</v>
+        <v>34172</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Diego Jesus</t>
+          <t>Dr. Vicente Barros</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45099</v>
+        <v>45085</v>
       </c>
       <c r="G7" t="n">
-        <v>4121.07</v>
+        <v>5016.13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3348</v>
+        <v>64575</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Nicolas da Cunha</t>
+          <t>Gabriel Barros</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45106</v>
       </c>
       <c r="G8" t="n">
-        <v>3502.3</v>
+        <v>2683.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>81627</v>
+        <v>78685</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Sra. Larissa Ramos</t>
+          <t>Isadora Almeida</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45092</v>
+        <v>45105</v>
       </c>
       <c r="G9" t="n">
-        <v>10696.99</v>
+        <v>10290.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>69004</v>
+        <v>74867</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Fernanda Rezende</t>
+          <t>Srta. Ana Luiza Melo</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45090</v>
       </c>
       <c r="G10" t="n">
-        <v>6056.81</v>
+        <v>10231.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4576</v>
+        <v>3588</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Gustavo da Cruz</t>
+          <t>Dra. Luiza Peixoto</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45103</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>12483.43</v>
+        <v>8914.58</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_48.xlsx
+++ b/data/input/absenteeism_data_48.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9531</v>
+        <v>25396</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gabrielly Pereira</t>
+          <t>Maria Cecília Campos</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G2" t="n">
-        <v>8790.700000000001</v>
+        <v>7835.14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>40494</v>
+        <v>30720</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bernardo Alves</t>
+          <t>Larissa da Conceição</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45078</v>
+        <v>45082</v>
       </c>
       <c r="G3" t="n">
-        <v>9522.200000000001</v>
+        <v>4040.53</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>81639</v>
+        <v>94293</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Mirella Azevedo</t>
+          <t>João Pedro Melo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45106</v>
+        <v>45085</v>
       </c>
       <c r="G4" t="n">
-        <v>7469.14</v>
+        <v>8797.030000000001</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7140</v>
+        <v>87550</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Davi Lucca da Cunha</t>
+          <t>Cecília Pinto</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,187 +581,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45080</v>
       </c>
       <c r="G5" t="n">
-        <v>6530.49</v>
+        <v>3552.63</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>99950</v>
+        <v>73505</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Luiz Felipe Azevedo</t>
+          <t>Maria Vitória Caldeira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="G6" t="n">
-        <v>9095.879999999999</v>
+        <v>8595.379999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>34172</v>
+        <v>52405</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dr. Vicente Barros</t>
+          <t>Leonardo Cunha</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45085</v>
+        <v>45099</v>
       </c>
       <c r="G7" t="n">
-        <v>5016.13</v>
+        <v>4270.28</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>64575</v>
+        <v>49861</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gabriel Barros</t>
+          <t>Dr. João Lucas Moraes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45106</v>
+        <v>45093</v>
       </c>
       <c r="G8" t="n">
-        <v>2683.76</v>
+        <v>4452.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>78685</v>
+        <v>23851</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Isadora Almeida</t>
+          <t>Dra. Amanda Rocha</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E9" t="n">
         <v>4</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45105</v>
+        <v>45098</v>
       </c>
       <c r="G9" t="n">
-        <v>10290.66</v>
+        <v>12018.96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>74867</v>
+        <v>11964</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Srta. Ana Luiza Melo</t>
+          <t>João Miguel Vieira</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45090</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>10231.85</v>
+        <v>9515.190000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3588</v>
+        <v>84522</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dra. Luiza Peixoto</t>
+          <t>Lorenzo Santos</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45088</v>
+        <v>45083</v>
       </c>
       <c r="G11" t="n">
-        <v>8914.58</v>
+        <v>7803.88</v>
       </c>
     </row>
   </sheetData>
